--- a/Tests/Varying_the_number_of_vertices/allvertices.xlsx
+++ b/Tests/Varying_the_number_of_vertices/allvertices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dead1401\PycharmProjects\SGAC\Tests\Varying_the_number_of_vertices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98E0BBB-58A5-4239-9974-A8915B92A09B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7C6B15-A3BD-4E1E-B90E-EFC71F80008C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,6 +111,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of vertices VS Solving time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -141,26 +196,14 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -259,16 +302,22 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$34</c:f>
+              <c:f>Sheet1!$B$2:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2.8630526860555015</c:v>
                 </c:pt>
@@ -367,6 +416,12 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>3.0558679898579917</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.1872305075327554</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.2495772838592529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -402,26 +457,14 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -520,16 +563,22 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$34</c:f>
+              <c:f>Sheet1!$C$2:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>25.51858271492852</c:v>
                 </c:pt>
@@ -628,6 +677,12 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>452.31971029440564</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>574.13596793015802</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>724.21607406934106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -656,33 +711,23 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -781,16 +826,22 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$34</c:f>
+              <c:f>Sheet1!$D$2:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>89.962826384438415</c:v>
                 </c:pt>
@@ -885,10 +936,16 @@
                   <c:v>285.17588261763257</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>255.00624759991965</c:v>
+                  <c:v>255.00624759991999</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>167.21341097354889</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>360.85283716519672</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>435.10333371162415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,20 +975,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1075,7 +1118,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Solving Time</a:t>
+                  <a:t>Solving Time (seconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1160,7 +1203,17 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21899956255468062"/>
+          <c:y val="0.24413094196558763"/>
+          <c:w val="0.1337782152230971"/>
+          <c:h val="0.23437664041994752"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2086,10 +2139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2553,7 +2606,7 @@
         <v>486.41965889930725</v>
       </c>
       <c r="D33">
-        <v>255.00624759991965</v>
+        <v>255.00624759991999</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2568,6 +2621,34 @@
       </c>
       <c r="D34">
         <v>167.21341097354889</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>95</v>
+      </c>
+      <c r="B35">
+        <v>3.1872305075327554</v>
+      </c>
+      <c r="C35">
+        <v>574.13596793015802</v>
+      </c>
+      <c r="D35">
+        <v>360.85283716519672</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>3.2495772838592529</v>
+      </c>
+      <c r="C36">
+        <v>724.21607406934106</v>
+      </c>
+      <c r="D36">
+        <v>435.10333371162415</v>
       </c>
     </row>
   </sheetData>
